--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\交易\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E28A3-D8FF-4B5D-AE37-F9701ED1E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEDC9CD-B843-48ED-A958-09F2F813CA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18980" yWindow="0" windowWidth="19420" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,6 +1063,33 @@
     <xf numFmtId="188" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,9 +1105,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,30 +1115,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,21 +1545,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1606,26 +1606,26 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="13">
         <v>0.5</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="78">
         <v>200</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="79">
         <v>0.01</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="74">
         <f>C3*D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="75">
         <v>5</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="74">
         <f>E3*F3</f>
         <v>10</v>
       </c>
@@ -1655,15 +1655,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="3">
         <v>0.75</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="7">
         <f>H$2*$D$3*$F$3*$B4</f>
         <v>7.5</v>
@@ -1690,15 +1690,15 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="7">
         <f>H$2*$D$3*$F$3*$B5</f>
         <v>10</v>
@@ -1725,15 +1725,15 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="5">
         <f>H$2*$D$3*$F$3*$B6</f>
         <v>20</v>
@@ -1760,20 +1760,20 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -1825,10 +1825,10 @@
         <f>多仓!D15</f>
         <v>3.5386736842105266</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="65">
         <v>5</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="70">
         <f>C3</f>
         <v>200</v>
       </c>
@@ -1840,7 +1840,7 @@
         <f>F11/E11</f>
         <v>2.6893920000000002E-2</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="66">
         <f>API!B3</f>
         <v>2.9649999999999999</v>
       </c>
@@ -1848,7 +1848,7 @@
         <f>多仓!D17</f>
         <v>-0.16211545211705855</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="64">
         <f>I11+I12</f>
         <v>-0.11681429299611856</v>
       </c>
@@ -1856,7 +1856,7 @@
         <f>F11*I11*D11</f>
         <v>-4.3599200000000042</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="72">
         <f>K11+K12</f>
         <v>-3.3610109090909095</v>
       </c>
@@ -1875,8 +1875,8 @@
         <f>空仓!D18</f>
         <v>3.1056914212548019</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="80"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="14">
         <f>B12*C12/D11</f>
         <v>4.4100818181818191</v>
@@ -1885,28 +1885,22 @@
         <f>F12/E11</f>
         <v>2.2050409090909096E-2</v>
       </c>
-      <c r="H12" s="75"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="15">
         <f>空仓!D20</f>
         <v>4.5301159120939988E-2</v>
       </c>
-      <c r="J12" s="69"/>
+      <c r="J12" s="65"/>
       <c r="K12" s="6">
         <f>F12*I12*D11</f>
         <v>0.99890909090909463</v>
       </c>
-      <c r="L12" s="81"/>
+      <c r="L12" s="72"/>
       <c r="M12"/>
       <c r="N12" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="L11:L12"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="F3:F6"/>
@@ -1914,6 +1908,12 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5409,11 +5409,11 @@
       </c>
       <c r="B18" s="101"/>
       <c r="C18" s="102"/>
-      <c r="D18" s="75">
+      <c r="D18" s="66">
         <f>E17/D17</f>
         <v>3.1056914212548019</v>
       </c>
-      <c r="E18" s="75"/>
+      <c r="E18" s="66"/>
       <c r="G18" s="1">
         <v>3.1779000000000002</v>
       </c>
@@ -5427,11 +5427,11 @@
       </c>
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
-      <c r="D19" s="75">
+      <c r="D19" s="66">
         <f>汇总!H11</f>
         <v>2.9649999999999999</v>
       </c>
-      <c r="E19" s="75"/>
+      <c r="E19" s="66"/>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
@@ -5442,11 +5442,11 @@
       </c>
       <c r="B20" s="101"/>
       <c r="C20" s="102"/>
-      <c r="D20" s="74">
+      <c r="D20" s="64">
         <f>(D18-D19)/D18</f>
         <v>4.5301159120939988E-2</v>
       </c>
-      <c r="E20" s="74"/>
+      <c r="E20" s="64"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
@@ -5765,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6265A-6CB3-4E0E-BBEB-1007F11DD0B4}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5779,12 +5779,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -5979,14 +5979,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="55">
-        <v>1.10743E-2</v>
+        <v>5.2538</v>
       </c>
       <c r="C16" s="2">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="D16" s="2">
         <f>B16*C16</f>
-        <v>4.4297200000000007E-3</v>
+        <v>28.370520000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5995,14 +5995,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="55">
-        <v>1.10743E-2</v>
+        <v>4.7718999999999996</v>
       </c>
       <c r="C17" s="2">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="D17" s="2">
         <f>B17*C17</f>
-        <v>1.9933740000000002E-2</v>
+        <v>25.768259999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6074,26 +6074,26 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <f>C22/B22</f>
-        <v>1.10743E-2</v>
+        <v>5.0128499999999994</v>
       </c>
       <c r="B22" s="2">
         <f>SUM($C$15:$C$20)</f>
-        <v>2.2000000000000002</v>
+        <v>10.8</v>
       </c>
       <c r="C22" s="9">
         <f>SUM($D$15:$D$20)</f>
-        <v>2.4363460000000003E-2</v>
+        <v>54.138779999999997</v>
       </c>
       <c r="D22" s="15">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="E22" s="9">
         <f>A22*(1-D22)</f>
-        <v>1.08417397E-2</v>
+        <v>4.9075801499999994</v>
       </c>
       <c r="F22" s="9">
         <f>C22*D22</f>
-        <v>5.1163266000000011E-4</v>
+        <v>1.1369143800000001</v>
       </c>
     </row>
   </sheetData>
@@ -6111,7 +6111,7 @@
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6127,10 +6127,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="84"/>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="70"/>
+      <c r="F1" s="78"/>
       <c r="I1" s="107" t="s">
         <v>7</v>
       </c>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="J2" s="57">
         <f>J$10*(1+$I2)</f>
-        <v>1.14930003E-2</v>
+        <v>5.2685579000000002</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="J3" s="57">
         <f>J$10*(1+$I3)</f>
-        <v>1.16023533E-2</v>
+        <v>5.3186868999999994</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="J4" s="57">
         <f t="shared" ref="J4:J9" si="2">J$10*(1+$I4)</f>
-        <v>1.20397653E-2</v>
+        <v>5.5192028999999998</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="J5" s="57">
         <f t="shared" si="2"/>
-        <v>1.19304123E-2</v>
+        <v>5.4690738999999997</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -6248,15 +6248,15 @@
       </c>
       <c r="J6" s="58">
         <f t="shared" si="2"/>
-        <v>1.1055588299999999E-2</v>
+        <v>5.0680418999999999</v>
       </c>
       <c r="K6" s="10">
         <f>J7</f>
-        <v>1.1700771E-2</v>
+        <v>5.3638030000000008</v>
       </c>
       <c r="L6" s="10">
         <f>K6*1.01</f>
-        <v>1.1817778710000001E-2</v>
+        <v>5.4174410300000009</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="J7" s="59">
         <f t="shared" si="2"/>
-        <v>1.1700771E-2</v>
+        <v>5.3638030000000008</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>74</v>
@@ -6311,15 +6311,15 @@
       </c>
       <c r="J8" s="60">
         <f t="shared" si="2"/>
-        <v>1.11649413E-2</v>
+        <v>5.1181709</v>
       </c>
       <c r="K8" s="18">
         <f>J9</f>
-        <v>1.1044653E-2</v>
+        <v>5.0630290000000002</v>
       </c>
       <c r="L8" s="18">
         <f>K8*1.021</f>
-        <v>1.1276590712999999E-2</v>
+        <v>5.1693526089999997</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="J9" s="61">
         <f t="shared" si="2"/>
-        <v>1.1044653E-2</v>
+        <v>5.0630290000000002</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>85</v>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="56">
-        <v>1.09353E-2</v>
+        <v>5.0129000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="J11" s="62">
         <f>J$10*(1+$I11)</f>
-        <v>1.0825947000000001E-2</v>
+        <v>4.962771</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>86</v>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="J12" s="60">
         <f>J$10*(1+$I12)</f>
-        <v>1.0705658700000001E-2</v>
+        <v>4.9076291000000003</v>
       </c>
       <c r="K12" s="20">
         <f>J11</f>
-        <v>1.0825947000000001E-2</v>
+        <v>4.962771</v>
       </c>
       <c r="L12" s="20">
         <f>K12*0.979</f>
-        <v>1.0598602113E-2</v>
+        <v>4.8585528089999999</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="J13" s="63">
         <f t="shared" ref="J13:J18" si="5">J$10*(1+$I13)</f>
-        <v>1.0596305699999999E-2</v>
+        <v>4.8575001000000002</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>73</v>
@@ -6485,15 +6485,15 @@
       </c>
       <c r="J14" s="57">
         <f t="shared" si="5"/>
-        <v>1.03775997E-2</v>
+        <v>4.7572421</v>
       </c>
       <c r="K14" s="10">
         <f>J13</f>
-        <v>1.0596305699999999E-2</v>
+        <v>4.8575001000000002</v>
       </c>
       <c r="L14" s="10">
         <f>K14*0.979</f>
-        <v>1.0373783280299999E-2</v>
+        <v>4.7554925979</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="J15" s="57">
         <f t="shared" si="5"/>
-        <v>1.0158893700000001E-2</v>
+        <v>4.6569841000000007</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J16" s="57">
         <f t="shared" si="5"/>
-        <v>9.8308347000000008E-3</v>
+        <v>4.5065971000000005</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="J17" s="57">
         <f t="shared" si="5"/>
-        <v>9.9401877000000003E-3</v>
+        <v>4.5567261000000006</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="J18" s="57">
         <f t="shared" si="5"/>
-        <v>7.2172979999999996E-3</v>
+        <v>3.3085139999999997</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -6903,11 +6903,11 @@
       <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="72">
         <f>C13/B13</f>
         <v>3.1752400981510003</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="72"/>
       <c r="E14" s="113">
         <f>F13/E13</f>
         <v>2.21557405576536</v>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00062753-0725-4E70-A0EF-1B75EE4215D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8447D-5524-497F-BD3E-5D81FD4AE0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18980" yWindow="0" windowWidth="19420" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合并计算" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -656,14 +656,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>4.6135999999999999</v>
+        <v>4.3773</v>
       </c>
       <c r="C4" s="5">
-        <v>6.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D4" s="5">
         <f>B4*C4</f>
-        <v>31.372479999999999</v>
+        <v>40.271159999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -672,14 +672,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>4.3600000000000003</v>
+        <v>4.1414</v>
       </c>
       <c r="C5" s="5">
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D5" s="5">
         <f>B5*C5</f>
-        <v>39.24</v>
+        <v>38.51502</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -753,26 +753,26 @@
       <c r="A10" s="25"/>
       <c r="B10" s="10">
         <f>D10/C10</f>
-        <v>4.4691443037974681</v>
+        <v>4.2587124324324321</v>
       </c>
       <c r="C10" s="5">
         <f>SUM($C$3:$C$8)</f>
-        <v>15.8</v>
+        <v>18.5</v>
       </c>
       <c r="D10" s="6">
         <f>SUM($D$3:$D$8)</f>
-        <v>70.612480000000005</v>
+        <v>78.786180000000002</v>
       </c>
       <c r="E10" s="7">
-        <v>2.1000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F10" s="6">
         <f>B10*(1+E10)</f>
-        <v>4.5629963341772148</v>
+        <v>4.3907325178378374</v>
       </c>
       <c r="G10" s="6">
         <f>D10*E10</f>
-        <v>1.4828620800000003</v>
+        <v>2.4423715800000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C8447D-5524-497F-BD3E-5D81FD4AE0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920673B-C1E4-41FC-BC5C-1F05214D975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="0" windowWidth="19420" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合并计算" sheetId="1" r:id="rId1"/>
-    <sheet name="期望值" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="期望值" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>多仓均价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,17 +96,58 @@
     <t>倍/年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>起始合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次起始合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;仓位&quot;0"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="185" formatCode="[Red][&gt;=0.1]0.0%;0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +368,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -656,14 +710,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>4.3773</v>
+        <v>4.2980999999999998</v>
       </c>
       <c r="C4" s="5">
-        <v>9.1999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="D4" s="5">
         <f>B4*C4</f>
-        <v>40.271159999999995</v>
+        <v>22.35012</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -672,14 +726,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>4.1414</v>
+        <v>4.8304</v>
       </c>
       <c r="C5" s="5">
-        <v>9.3000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="D5" s="5">
         <f>B5*C5</f>
-        <v>38.51502</v>
+        <v>25.118080000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -753,26 +807,26 @@
       <c r="A10" s="25"/>
       <c r="B10" s="10">
         <f>D10/C10</f>
-        <v>4.2587124324324321</v>
+        <v>4.5642500000000004</v>
       </c>
       <c r="C10" s="5">
         <f>SUM($C$3:$C$8)</f>
-        <v>18.5</v>
+        <v>10.4</v>
       </c>
       <c r="D10" s="6">
         <f>SUM($D$3:$D$8)</f>
-        <v>78.786180000000002</v>
+        <v>47.468200000000003</v>
       </c>
       <c r="E10" s="7">
         <v>3.1E-2</v>
       </c>
       <c r="F10" s="6">
         <f>B10*(1+E10)</f>
-        <v>4.3907325178378374</v>
+        <v>4.7057417499999996</v>
       </c>
       <c r="G10" s="6">
         <f>D10*E10</f>
-        <v>2.4423715800000001</v>
+        <v>1.4715142000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -819,14 +873,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>5.2538</v>
+        <v>4.2980999999999998</v>
       </c>
       <c r="C16" s="5">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D16" s="5">
         <f>B16*C16</f>
-        <v>28.370520000000003</v>
+        <v>22.35012</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -835,14 +889,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>4.7718999999999996</v>
+        <v>4.8304</v>
       </c>
       <c r="C17" s="5">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D17" s="5">
         <f>B17*C17</f>
-        <v>25.768259999999998</v>
+        <v>25.118080000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -916,26 +970,26 @@
       <c r="A22" s="25"/>
       <c r="B22" s="17">
         <f>D22/C22</f>
-        <v>5.0128499999999994</v>
+        <v>4.5642500000000004</v>
       </c>
       <c r="C22" s="5">
         <f>SUM($C$15:$C$20)</f>
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="D22" s="6">
         <f>SUM($D$15:$D$20)</f>
-        <v>54.138779999999997</v>
+        <v>47.468200000000003</v>
       </c>
       <c r="E22" s="7">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F22" s="6">
         <f>B22*(1-E22)</f>
-        <v>4.9075801499999994</v>
+        <v>4.4684007500000007</v>
       </c>
       <c r="G22" s="6">
         <f>D22*E22</f>
-        <v>1.1369143800000001</v>
+        <v>0.99683220000000017</v>
       </c>
     </row>
   </sheetData>
@@ -952,6 +1006,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289C6290-56C3-4D57-90F5-6D3D9BB00F3A}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>15</v>
+      </c>
+      <c r="B2" s="26">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2/A2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
+        <v>205</v>
+      </c>
+      <c r="E2" s="5">
+        <f>A2+D2</f>
+        <v>220</v>
+      </c>
+      <c r="F2" s="5">
+        <f>B2+D2</f>
+        <v>220</v>
+      </c>
+      <c r="G2" s="27">
+        <f>B2/F2</f>
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <f xml:space="preserve"> B2 - ( D2 + B2 ) * 5 %</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <f>B2-H2</f>
+        <v>11</v>
+      </c>
+      <c r="J2" s="3">
+        <f>D2+H2</f>
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3986D1-AAF1-4C8E-9A8E-F7BF2531EA9E}">
   <dimension ref="A1:Q36"/>
   <sheetViews>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B920673B-C1E4-41FC-BC5C-1F05214D975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC6AE7-775F-4E6E-A650-12CE11AF7725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合并计算" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="185" formatCode="[Red][&gt;=0.1]0.0%;0.0%"/>
+    <numFmt numFmtId="181" formatCode="[Red][&gt;=0.1]0.0%;0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -346,6 +346,12 @@
     <xf numFmtId="177" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,12 +374,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -669,12 +669,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -710,14 +710,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>4.2980999999999998</v>
+        <v>4.5650500000000003</v>
       </c>
       <c r="C4" s="5">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <f>B4*C4</f>
-        <v>22.35012</v>
+        <v>4.5650500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -804,40 +804,40 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="10">
         <f>D10/C10</f>
-        <v>4.5642500000000004</v>
+        <v>4.7876016129032264</v>
       </c>
       <c r="C10" s="5">
         <f>SUM($C$3:$C$8)</f>
-        <v>10.4</v>
+        <v>6.2</v>
       </c>
       <c r="D10" s="6">
         <f>SUM($D$3:$D$8)</f>
-        <v>47.468200000000003</v>
+        <v>29.683130000000002</v>
       </c>
       <c r="E10" s="7">
         <v>3.1E-2</v>
       </c>
       <c r="F10" s="6">
         <f>B10*(1+E10)</f>
-        <v>4.7057417499999996</v>
+        <v>4.936017262903226</v>
       </c>
       <c r="G10" s="6">
         <f>D10*E10</f>
-        <v>1.4715142000000001</v>
+        <v>0.92017703000000006</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -873,14 +873,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>4.2980999999999998</v>
+        <v>4.5650500000000003</v>
       </c>
       <c r="C16" s="5">
-        <v>5.2</v>
+        <v>10.4</v>
       </c>
       <c r="D16" s="5">
         <f>B16*C16</f>
-        <v>22.35012</v>
+        <v>47.476520000000008</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -889,14 +889,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>4.8304</v>
+        <v>5.9</v>
       </c>
       <c r="C17" s="5">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="D17" s="5">
         <f>B17*C17</f>
-        <v>25.118080000000003</v>
+        <v>61.95</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -967,29 +967,29 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="17">
         <f>D22/C22</f>
-        <v>4.5642500000000004</v>
+        <v>5.2357186602870822</v>
       </c>
       <c r="C22" s="5">
         <f>SUM($C$15:$C$20)</f>
-        <v>10.4</v>
+        <v>20.9</v>
       </c>
       <c r="D22" s="6">
         <f>SUM($D$15:$D$20)</f>
-        <v>47.468200000000003</v>
+        <v>109.42652000000001</v>
       </c>
       <c r="E22" s="7">
-        <v>2.1000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F22" s="6">
         <f>B22*(1-E22)</f>
-        <v>4.4684007500000007</v>
+        <v>5.0734113818181825</v>
       </c>
       <c r="G22" s="6">
         <f>D22*E22</f>
-        <v>0.99683220000000017</v>
+        <v>3.3922221200000005</v>
       </c>
     </row>
   </sheetData>
@@ -1027,16 +1027,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1059,17 +1059,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="18">
         <v>15</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="18">
         <v>15</v>
       </c>
       <c r="C2" s="5">
         <f>B2/A2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="18">
         <v>205</v>
       </c>
       <c r="E2" s="5">
@@ -1080,7 +1080,7 @@
         <f>B2+D2</f>
         <v>220</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="19">
         <f>B2/F2</f>
         <v>6.8181818181818177E-2</v>
       </c>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC6AE7-775F-4E6E-A650-12CE11AF7725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C83609-2CC5-405C-86C8-E3D39046C1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -710,14 +710,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>4.5650500000000003</v>
+        <v>4.1101999999999999</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="D4" s="5">
         <f>B4*C4</f>
-        <v>4.5650500000000003</v>
+        <v>25.483239999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -726,14 +726,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>4.8304</v>
+        <v>3.7153999999999998</v>
       </c>
       <c r="C5" s="5">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="5">
         <f>B5*C5</f>
-        <v>25.118080000000003</v>
+        <v>23.407019999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -807,26 +807,26 @@
       <c r="A10" s="27"/>
       <c r="B10" s="10">
         <f>D10/C10</f>
-        <v>4.7876016129032264</v>
+        <v>3.9112207999999997</v>
       </c>
       <c r="C10" s="5">
         <f>SUM($C$3:$C$8)</f>
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="D10" s="6">
         <f>SUM($D$3:$D$8)</f>
-        <v>29.683130000000002</v>
+        <v>48.890259999999998</v>
       </c>
       <c r="E10" s="7">
-        <v>3.1E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F10" s="6">
         <f>B10*(1+E10)</f>
-        <v>4.936017262903226</v>
+        <v>4.1106930607999992</v>
       </c>
       <c r="G10" s="6">
         <f>D10*E10</f>
-        <v>0.92017703000000006</v>
+        <v>2.4934032599999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -873,14 +873,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>4.5650500000000003</v>
+        <v>4.8</v>
       </c>
       <c r="C16" s="5">
-        <v>10.4</v>
+        <v>6.1</v>
       </c>
       <c r="D16" s="5">
         <f>B16*C16</f>
-        <v>47.476520000000008</v>
+        <v>29.279999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -889,14 +889,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>5.9</v>
+        <v>5.7538999999999998</v>
       </c>
       <c r="C17" s="5">
-        <v>10.5</v>
+        <v>6.3</v>
       </c>
       <c r="D17" s="5">
         <f>B17*C17</f>
-        <v>61.95</v>
+        <v>36.249569999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -970,26 +970,26 @@
       <c r="A22" s="27"/>
       <c r="B22" s="17">
         <f>D22/C22</f>
-        <v>5.2357186602870822</v>
+        <v>5.2846427419354836</v>
       </c>
       <c r="C22" s="5">
         <f>SUM($C$15:$C$20)</f>
-        <v>20.9</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="D22" s="6">
         <f>SUM($D$15:$D$20)</f>
-        <v>109.42652000000001</v>
+        <v>65.529569999999993</v>
       </c>
       <c r="E22" s="7">
         <v>3.1E-2</v>
       </c>
       <c r="F22" s="6">
         <f>B22*(1-E22)</f>
-        <v>5.0734113818181825</v>
+        <v>5.1208188169354836</v>
       </c>
       <c r="G22" s="6">
         <f>D22*E22</f>
-        <v>3.3922221200000005</v>
+        <v>2.0314166699999996</v>
       </c>
     </row>
   </sheetData>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C83609-2CC5-405C-86C8-E3D39046C1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312C7AC-AD82-4270-88F5-BAE5BA3A9ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -710,14 +710,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>4.1101999999999999</v>
+        <v>4.3113999999999999</v>
       </c>
       <c r="C4" s="5">
         <v>6.2</v>
       </c>
       <c r="D4" s="5">
         <f>B4*C4</f>
-        <v>25.483239999999999</v>
+        <v>26.73068</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -726,14 +726,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.7153999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="C5" s="5">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D5" s="5">
         <f>B5*C5</f>
-        <v>23.407019999999999</v>
+        <v>23.680000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -807,26 +807,26 @@
       <c r="A10" s="27"/>
       <c r="B10" s="10">
         <f>D10/C10</f>
-        <v>3.9112207999999997</v>
+        <v>4.0008476190476188</v>
       </c>
       <c r="C10" s="5">
         <f>SUM($C$3:$C$8)</f>
-        <v>12.5</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="D10" s="6">
         <f>SUM($D$3:$D$8)</f>
-        <v>48.890259999999998</v>
+        <v>50.410679999999999</v>
       </c>
       <c r="E10" s="7">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F10" s="6">
         <f>B10*(1+E10)</f>
-        <v>4.1106930607999992</v>
+        <v>4.2048908476190467</v>
       </c>
       <c r="G10" s="6">
         <f>D10*E10</f>
-        <v>2.4934032599999996</v>
+        <v>2.5709446799999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312C7AC-AD82-4270-88F5-BAE5BA3A9ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378784D4-8F20-4D36-BA1B-CBC512720D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -873,14 +873,14 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>4.8</v>
+        <v>4.5098000000000003</v>
       </c>
       <c r="C16" s="5">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5">
         <f>B16*C16</f>
-        <v>29.279999999999998</v>
+        <v>18.039200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -889,14 +889,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>5.7538999999999998</v>
+        <v>4.8434999999999997</v>
       </c>
       <c r="C17" s="5">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="5">
         <f>B17*C17</f>
-        <v>36.249569999999999</v>
+        <v>19.373999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -970,26 +970,26 @@
       <c r="A22" s="27"/>
       <c r="B22" s="17">
         <f>D22/C22</f>
-        <v>5.2846427419354836</v>
+        <v>4.6766500000000004</v>
       </c>
       <c r="C22" s="5">
         <f>SUM($C$15:$C$20)</f>
-        <v>12.399999999999999</v>
+        <v>8</v>
       </c>
       <c r="D22" s="6">
         <f>SUM($D$15:$D$20)</f>
-        <v>65.529569999999993</v>
+        <v>37.413200000000003</v>
       </c>
       <c r="E22" s="7">
         <v>3.1E-2</v>
       </c>
       <c r="F22" s="6">
         <f>B22*(1-E22)</f>
-        <v>5.1208188169354836</v>
+        <v>4.5316738500000007</v>
       </c>
       <c r="G22" s="6">
         <f>D22*E22</f>
-        <v>2.0314166699999996</v>
+        <v>1.1598092</v>
       </c>
     </row>
   </sheetData>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378784D4-8F20-4D36-BA1B-CBC512720D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040CB7B-DDC4-45EE-8E76-D89DC4228836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合并计算" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -710,14 +710,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>4.3113999999999999</v>
+        <v>4.3806000000000003</v>
       </c>
       <c r="C4" s="5">
-        <v>6.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D4" s="5">
         <f>B4*C4</f>
-        <v>26.73068</v>
+        <v>38.111219999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -726,14 +726,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>3.7</v>
+        <v>3.0684999999999998</v>
       </c>
       <c r="C5" s="5">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="D5" s="5">
         <f>B5*C5</f>
-        <v>23.680000000000003</v>
+        <v>29.457599999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -807,26 +807,26 @@
       <c r="A10" s="27"/>
       <c r="B10" s="10">
         <f>D10/C10</f>
-        <v>4.0008476190476188</v>
+        <v>3.6922852459016391</v>
       </c>
       <c r="C10" s="5">
         <f>SUM($C$3:$C$8)</f>
-        <v>12.600000000000001</v>
+        <v>18.299999999999997</v>
       </c>
       <c r="D10" s="6">
         <f>SUM($D$3:$D$8)</f>
-        <v>50.410679999999999</v>
+        <v>67.568819999999988</v>
       </c>
       <c r="E10" s="7">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F10" s="6">
         <f>B10*(1+E10)</f>
-        <v>4.2048908476190467</v>
+        <v>3.8805917934426226</v>
       </c>
       <c r="G10" s="6">
         <f>D10*E10</f>
-        <v>2.5709446799999998</v>
+        <v>3.4460098199999991</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/交易/加密货币交易计算.xlsx
+++ b/交易/加密货币交易计算.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\交易\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\notes\交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040CB7B-DDC4-45EE-8E76-D89DC4228836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48574C5-096E-4157-A2AF-43FD8D24ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合并计算" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="期望值" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="合约总额" sheetId="5" r:id="rId4"/>
+    <sheet name="期望值" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>多仓均价</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +136,66 @@
   </si>
   <si>
     <t>下次剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平多价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平空价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获利转出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多仓收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空仓收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KERNEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算平仓价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -289,11 +351,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +423,9 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,6 +448,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -669,12 +752,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -783,7 +866,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -804,7 +887,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="10">
         <f>D10/C10</f>
         <v>3.6922852459016391</v>
@@ -832,12 +915,12 @@
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -946,7 +1029,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -967,7 +1050,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="17">
         <f>D22/C22</f>
         <v>4.6766500000000004</v>
@@ -1104,6 +1187,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE705BF-F683-4E44-BD0E-19ECCCEC931D}">
+  <dimension ref="B1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="10.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="H1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="K1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2.73</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <v>2.2179999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="E3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="H3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="K3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12">
+        <f>(C4-C2)/C2</f>
+        <v>-0.91575091575091572</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="12">
+        <f>(F4-F2)/F2</f>
+        <v>2.1314387211367667E-2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12">
+        <f>(I4-I2)/I2</f>
+        <v>-1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="12">
+        <f>(L4-L2)/L2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.46060000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12">
+        <f>(C2-C6)/C2</f>
+        <v>0.92472527472527477</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12">
+        <f>(F2-F6)/F2</f>
+        <v>8.747779751332159E-2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="12">
+        <f>(I2-I6)/I2</f>
+        <v>1.9999999999999924E-2</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="12">
+        <f>(L2-L6)/L2</f>
+        <v>-19.766456266907127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="K9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C2*(1+C10)</f>
+        <v>2.8119000000000001</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3">
+        <f>F2*(1+F10)</f>
+        <v>0.24479239999999999</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3">
+        <f>I2*(1+I10)</f>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3">
+        <f>L2*(1+L10)</f>
+        <v>2.4398E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C2*(1-C10)</f>
+        <v>2.6480999999999999</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3">
+        <f>F2*(1-F10)</f>
+        <v>0.20560760000000003</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3">
+        <f>I2*(1-I10)</f>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="3">
+        <f>L2*(1-L10)</f>
+        <v>1.9962000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025D88DE-A91F-409F-A59A-7EC402BA8356}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>45866</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3986D1-AAF1-4C8E-9A8E-F7BF2531EA9E}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
